--- a/xlsx/country_comparison/global_tax_sharing_positive.xlsx
+++ b/xlsx/country_comparison/global_tax_sharing_positive.xlsx
@@ -395,7 +395,7 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.550489493124854</v>
+        <v>0.550489493329875</v>
       </c>
       <c r="C2" t="n">
         <v>0.522965339675232</v>
